--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220511_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220511_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="250">
   <si>
     <t>사이트</t>
   </si>
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-05-11</t>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t>MBC</t>
+  </si>
+  <si>
+    <t>페포니뮤직</t>
   </si>
   <si>
     <t>기타</t>
@@ -1173,7 +1176,7 @@
         <v>216</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1199,7 +1202,7 @@
         <v>217</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1277,7 +1280,7 @@
         <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1303,7 +1306,7 @@
         <v>221</v>
       </c>
       <c r="H7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1355,7 +1358,7 @@
         <v>221</v>
       </c>
       <c r="H9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1381,7 +1384,7 @@
         <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1433,7 +1436,7 @@
         <v>216</v>
       </c>
       <c r="H12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1459,7 +1462,7 @@
         <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1485,7 +1488,7 @@
         <v>221</v>
       </c>
       <c r="H14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1511,7 +1514,7 @@
         <v>225</v>
       </c>
       <c r="H15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1537,7 +1540,7 @@
         <v>226</v>
       </c>
       <c r="H16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1563,7 +1566,7 @@
         <v>216</v>
       </c>
       <c r="H17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1589,7 +1592,7 @@
         <v>227</v>
       </c>
       <c r="H18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1615,7 +1618,7 @@
         <v>221</v>
       </c>
       <c r="H19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1663,6 +1666,12 @@
       <c r="F21" t="s">
         <v>176</v>
       </c>
+      <c r="G21" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
@@ -1684,10 +1693,10 @@
         <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1713,7 +1722,7 @@
         <v>221</v>
       </c>
       <c r="H23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1739,7 +1748,7 @@
         <v>221</v>
       </c>
       <c r="H24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1765,7 +1774,7 @@
         <v>221</v>
       </c>
       <c r="H25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1791,7 +1800,7 @@
         <v>221</v>
       </c>
       <c r="H26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1817,7 +1826,7 @@
         <v>221</v>
       </c>
       <c r="H27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1843,7 +1852,7 @@
         <v>221</v>
       </c>
       <c r="H28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1866,10 +1875,10 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1895,7 +1904,7 @@
         <v>216</v>
       </c>
       <c r="H30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1921,7 +1930,7 @@
         <v>221</v>
       </c>
       <c r="H31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1947,7 +1956,7 @@
         <v>221</v>
       </c>
       <c r="H32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1973,7 +1982,7 @@
         <v>217</v>
       </c>
       <c r="H33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1999,7 +2008,7 @@
         <v>221</v>
       </c>
       <c r="H34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2025,7 +2034,7 @@
         <v>221</v>
       </c>
       <c r="H35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2074,10 +2083,10 @@
         <v>178</v>
       </c>
       <c r="G37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2100,10 +2109,10 @@
         <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2126,10 +2135,10 @@
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2152,10 +2161,10 @@
         <v>179</v>
       </c>
       <c r="G40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2204,10 +2213,10 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2230,10 +2239,10 @@
         <v>180</v>
       </c>
       <c r="G43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2256,10 +2265,10 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2282,10 +2291,10 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2308,10 +2317,10 @@
         <v>181</v>
       </c>
       <c r="G46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2334,10 +2343,10 @@
         <v>182</v>
       </c>
       <c r="G47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2386,10 +2395,10 @@
         <v>184</v>
       </c>
       <c r="G49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2412,10 +2421,10 @@
         <v>185</v>
       </c>
       <c r="G50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2464,10 +2473,10 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2490,10 +2499,10 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2516,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2542,10 +2551,10 @@
         <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2568,10 +2577,10 @@
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2597,7 +2606,7 @@
         <v>227</v>
       </c>
       <c r="H57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2620,10 +2629,10 @@
         <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2646,10 +2655,10 @@
         <v>187</v>
       </c>
       <c r="G59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2672,10 +2681,10 @@
         <v>188</v>
       </c>
       <c r="G60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2698,10 +2707,10 @@
         <v>189</v>
       </c>
       <c r="G61" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2750,10 +2759,10 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2776,10 +2785,10 @@
         <v>188</v>
       </c>
       <c r="G64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2828,10 +2837,10 @@
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2854,10 +2863,10 @@
         <v>192</v>
       </c>
       <c r="G67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2880,10 +2889,10 @@
         <v>193</v>
       </c>
       <c r="G68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2906,10 +2915,10 @@
         <v>194</v>
       </c>
       <c r="G69" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2932,10 +2941,10 @@
         <v>195</v>
       </c>
       <c r="G70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2958,10 +2967,10 @@
         <v>196</v>
       </c>
       <c r="G71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2984,10 +2993,10 @@
         <v>197</v>
       </c>
       <c r="G72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H72" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3010,10 +3019,10 @@
         <v>198</v>
       </c>
       <c r="G73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3036,10 +3045,10 @@
         <v>199</v>
       </c>
       <c r="G74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3065,7 +3074,7 @@
         <v>216</v>
       </c>
       <c r="H75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3088,10 +3097,10 @@
         <v>200</v>
       </c>
       <c r="G76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3114,10 +3123,10 @@
         <v>201</v>
       </c>
       <c r="G77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3140,10 +3149,10 @@
         <v>202</v>
       </c>
       <c r="G78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3166,10 +3175,10 @@
         <v>203</v>
       </c>
       <c r="G79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3195,7 +3204,7 @@
         <v>220</v>
       </c>
       <c r="H80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3218,10 +3227,10 @@
         <v>89</v>
       </c>
       <c r="G81" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H81" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3244,10 +3253,10 @@
         <v>205</v>
       </c>
       <c r="G82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3273,7 +3282,7 @@
         <v>216</v>
       </c>
       <c r="H83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3296,10 +3305,10 @@
         <v>188</v>
       </c>
       <c r="G84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H84" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3321,6 +3330,12 @@
       <c r="F85" t="s">
         <v>176</v>
       </c>
+      <c r="G85" t="s">
+        <v>228</v>
+      </c>
+      <c r="H85" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
@@ -3342,10 +3357,10 @@
         <v>207</v>
       </c>
       <c r="G86" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3397,7 +3412,7 @@
         <v>226</v>
       </c>
       <c r="H88" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3419,6 +3434,12 @@
       <c r="F89" t="s">
         <v>176</v>
       </c>
+      <c r="G89" t="s">
+        <v>228</v>
+      </c>
+      <c r="H89" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
@@ -3440,10 +3461,10 @@
         <v>209</v>
       </c>
       <c r="G90" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3466,10 +3487,10 @@
         <v>210</v>
       </c>
       <c r="G91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H91" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3492,10 +3513,10 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3547,7 +3568,7 @@
         <v>225</v>
       </c>
       <c r="H94" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3573,7 +3594,7 @@
         <v>216</v>
       </c>
       <c r="H95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3596,10 +3617,10 @@
         <v>212</v>
       </c>
       <c r="G96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3622,10 +3643,10 @@
         <v>213</v>
       </c>
       <c r="G97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H97" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3648,10 +3669,10 @@
         <v>183</v>
       </c>
       <c r="G98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3674,10 +3695,10 @@
         <v>214</v>
       </c>
       <c r="G99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3700,10 +3721,10 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:8">

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220511_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220511_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="249">
   <si>
     <t>사이트</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>SOURCE MUSIC</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>EDAM</t>
@@ -2161,7 +2158,7 @@
         <v>179</v>
       </c>
       <c r="G40" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H40" t="s">
         <v>229</v>
@@ -2213,7 +2210,7 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H42" t="s">
         <v>229</v>
@@ -2239,7 +2236,7 @@
         <v>180</v>
       </c>
       <c r="G43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H43" t="s">
         <v>229</v>
@@ -2291,7 +2288,7 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H45" t="s">
         <v>229</v>
@@ -2317,7 +2314,7 @@
         <v>181</v>
       </c>
       <c r="G46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H46" t="s">
         <v>229</v>
@@ -2343,10 +2340,10 @@
         <v>182</v>
       </c>
       <c r="G47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2395,7 +2392,7 @@
         <v>184</v>
       </c>
       <c r="G49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H49" t="s">
         <v>229</v>
@@ -2421,7 +2418,7 @@
         <v>185</v>
       </c>
       <c r="G50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H50" t="s">
         <v>229</v>
@@ -2473,10 +2470,10 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2499,7 +2496,7 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H53" t="s">
         <v>229</v>
@@ -2551,7 +2548,7 @@
         <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H55" t="s">
         <v>229</v>
@@ -2577,7 +2574,7 @@
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H56" t="s">
         <v>229</v>
@@ -2655,10 +2652,10 @@
         <v>187</v>
       </c>
       <c r="G59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2681,7 +2678,7 @@
         <v>188</v>
       </c>
       <c r="G60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H60" t="s">
         <v>229</v>
@@ -2707,7 +2704,7 @@
         <v>189</v>
       </c>
       <c r="G61" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H61" t="s">
         <v>229</v>
@@ -2785,7 +2782,7 @@
         <v>188</v>
       </c>
       <c r="G64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H64" t="s">
         <v>229</v>
@@ -2915,7 +2912,7 @@
         <v>194</v>
       </c>
       <c r="G69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H69" t="s">
         <v>229</v>
@@ -2941,7 +2938,7 @@
         <v>195</v>
       </c>
       <c r="G70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H70" t="s">
         <v>229</v>
@@ -2993,7 +2990,7 @@
         <v>197</v>
       </c>
       <c r="G72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H72" t="s">
         <v>229</v>
@@ -3019,7 +3016,7 @@
         <v>198</v>
       </c>
       <c r="G73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H73" t="s">
         <v>229</v>
@@ -3045,7 +3042,7 @@
         <v>199</v>
       </c>
       <c r="G74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H74" t="s">
         <v>229</v>
@@ -3097,7 +3094,7 @@
         <v>200</v>
       </c>
       <c r="G76" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H76" t="s">
         <v>229</v>
@@ -3123,7 +3120,7 @@
         <v>201</v>
       </c>
       <c r="G77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H77" t="s">
         <v>229</v>
@@ -3175,10 +3172,10 @@
         <v>203</v>
       </c>
       <c r="G79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3227,7 +3224,7 @@
         <v>89</v>
       </c>
       <c r="G81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H81" t="s">
         <v>229</v>
@@ -3253,7 +3250,7 @@
         <v>205</v>
       </c>
       <c r="G82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H82" t="s">
         <v>229</v>
@@ -3305,7 +3302,7 @@
         <v>188</v>
       </c>
       <c r="G84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H84" t="s">
         <v>229</v>
@@ -3461,7 +3458,7 @@
         <v>209</v>
       </c>
       <c r="G90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H90" t="s">
         <v>229</v>
@@ -3617,7 +3614,7 @@
         <v>212</v>
       </c>
       <c r="G96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H96" t="s">
         <v>229</v>
@@ -3643,7 +3640,7 @@
         <v>213</v>
       </c>
       <c r="G97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H97" t="s">
         <v>229</v>
@@ -3669,7 +3666,7 @@
         <v>183</v>
       </c>
       <c r="G98" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H98" t="s">
         <v>229</v>
@@ -3695,7 +3692,7 @@
         <v>214</v>
       </c>
       <c r="G99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H99" t="s">
         <v>229</v>
@@ -3721,7 +3718,7 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H100" t="s">
         <v>229</v>
